--- a/biology/Médecine/Paraplégie_spastique_familiale_type_4/Paraplégie_spastique_familiale_type_4.xlsx
+++ b/biology/Médecine/Paraplégie_spastique_familiale_type_4/Paraplégie_spastique_familiale_type_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_type_4</t>
+          <t>Paraplégie_spastique_familiale_type_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paraplégie spastique familiale type 4 est une maladie génétique caractérisée par une atteinte très progressive des membres inférieurs. Un tiers des malades a des troubles sphinctériens. L'âge de début de cette paraplégie spastique familiale se situe vers la fin de la deuxième décennie mais peut apparaître dès l'âge de 1 an ou très tardivement après 70 ans. Les manifestations cliniques de cette maladie sont très variables au sein de la même famille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_type_4</t>
+          <t>Paraplégie_spastique_familiale_type_4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène SPG4 situé sur le chromosome 2 codant la spastine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_type_4</t>
+          <t>Paraplégie_spastique_familiale_type_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette paraplégie spastique familiale représenterait entre 15 et 40 % des paraplégies spastiques familiales pures à transmission dominante.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_type_4</t>
+          <t>Paraplégie_spastique_familiale_type_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-De transmission autosomique dominante, la pénétrance est de 85 % à l'âge de 45 ans. Près de 6 % des personnes porteuses de la mutation sont complètement asymptomatiques.
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De transmission autosomique dominante, la pénétrance est de 85 % à l'âge de 45 ans. Près de 6 % des personnes porteuses de la mutation sont complètement asymptomatiques.
 </t>
         </is>
       </c>
@@ -587,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_type_4</t>
+          <t>Paraplégie_spastique_familiale_type_4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +626,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>en Alexandra Dürr, Chantal Tallaksen, Christel Depienne, Spastic Paraplegia Type 4 In: GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">en Alexandra Dürr, Chantal Tallaksen, Christel Depienne, Spastic Paraplegia Type 4 In: GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. </t>
         </is>
       </c>
     </row>
@@ -617,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_familiale_type_4</t>
+          <t>Paraplégie_spastique_familiale_type_4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +658,9 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Association
  Portail de la médecine                     </t>
